--- a/biology/Zoologie/Aspidoscelis_ceralbensis/Aspidoscelis_ceralbensis.xlsx
+++ b/biology/Zoologie/Aspidoscelis_ceralbensis/Aspidoscelis_ceralbensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidoscelis ceralbensis est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidoscelis ceralbensis est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île Jacques Cousteau en Basse-Californie du Sud au Mexique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île Jacques Cousteau en Basse-Californie du Sud au Mexique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de ceralb[o] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'île Ceralbo[2], désormais nommée l'île Jacques Cousteau.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de ceralb[o] et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, l'île Ceralbo, désormais nommée l'île Jacques Cousteau.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Van Denburgh &amp; Slevin, 1921 : Preliminary diagnoses of more new species of reptiles from islands in the gulf of California, Mexico. Proceedings of the California Academy of Sciences, ser. 4, vol. 11, n. 17, p. 395-398 (texte intégral).</t>
         </is>
